--- a/conf-core/src/test/resources/dataloader/data-type-format-failure-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/data-type-format-failure-test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="18060" windowHeight="8580"/>
   </bookViews>
@@ -111,11 +116,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,6 +127,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -208,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A5:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,97 +438,92 @@
     <col min="10" max="10" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1" t="b">
+      <c r="E9" t="b">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
     </row>
